--- a/mbs-perturbation/bottleneck/welm/nearmiss/bloated_welm_rbf_nearmiss_results.xlsx
+++ b/mbs-perturbation/bottleneck/welm/nearmiss/bloated_welm_rbf_nearmiss_results.xlsx
@@ -465,7 +465,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>0.5</v>
+        <v>0.5833333333333334</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -482,7 +482,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>0.5384615384615384</v>
+        <v>0.5652173913043478</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -499,7 +499,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>0.5384615384615384</v>
+        <v>0.6086956521739131</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -516,7 +516,7 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>0.48</v>
+        <v>0.3043478260869565</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
@@ -533,7 +533,7 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>0.44</v>
+        <v>0.4347826086956522</v>
       </c>
       <c r="C6" t="n">
         <v>0</v>
@@ -552,7 +552,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.4993846153846153</v>
+        <v>0.4992753623188406</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
